--- a/实验结果.xlsx
+++ b/实验结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18100" windowHeight="9980"/>
+    <workbookView windowWidth="25600" windowHeight="10730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>(本地)完成第一个包解析</t>
   </si>
@@ -42,7 +42,19 @@
     <t>LoadModel的参数只导入一次</t>
   </si>
   <si>
+    <t>改为单线程</t>
+  </si>
+  <si>
     <t>视点运动中</t>
+  </si>
+  <si>
+    <t>双线程</t>
+  </si>
+  <si>
+    <t>不加载work.js</t>
+  </si>
+  <si>
+    <t>不使用myArray二次解析</t>
   </si>
 </sst>
 </file>
@@ -55,7 +67,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,8 +83,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -542,158 +568,164 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -701,6 +733,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1051,10 +1086,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A6:Q23"/>
+  <dimension ref="A6:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1113,334 +1148,358 @@
       <c r="H14" s="3">
         <v>1000</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="5">
         <v>1</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="5">
         <v>2</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="5">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="5">
         <v>250</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="5">
         <v>500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="5">
         <v>750</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="5">
         <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="5">
         <v>5108</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="5">
         <v>51</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="5">
         <v>27</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="5">
         <v>1414</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="5">
         <v>1549</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="5">
         <v>2050</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="5">
         <v>3905</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5">
         <v>5280</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="5">
         <v>82</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="5">
         <v>2</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="5">
         <v>1315</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="5">
         <v>1752</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="5">
         <v>2315</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="5">
         <v>3667</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="5">
         <v>811</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="5">
         <v>54</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="5">
         <v>3</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="5">
         <v>1418</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="5">
         <v>1600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="5">
         <v>2292</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="5">
         <v>3792</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5">
         <v>856</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="5">
         <v>182</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="5">
         <v>2</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="5">
         <v>2017</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="5">
         <v>3466</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="5">
         <v>10697</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="5">
         <v>6288</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="6">
         <v>771</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="6">
         <v>56</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="6">
         <v>2</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="6">
         <v>1403</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="6">
         <v>1520</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="6">
         <v>2286</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="6">
         <v>3587</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6">
         <v>846</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="6">
         <v>146</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="6">
         <v>4</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="6">
         <v>1882</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="6">
         <v>3648</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="6">
         <v>11017</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="6">
         <v>6240</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="5">
         <v>672</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="5">
         <v>30</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="5">
         <v>27</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="5">
         <v>1423</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="5">
         <v>1379</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="5">
         <v>2036</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="5">
         <v>3915</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="5">
         <v>8370</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="5">
         <v>27</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="5">
         <v>2</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="5">
         <v>12342</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="5">
         <v>18163</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="5">
         <v>5860</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="5">
         <v>10339</v>
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5">
         <v>807</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="5">
         <v>102</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="5">
         <v>2</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="5">
         <v>1944</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="5">
         <v>3556</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="5">
         <v>10578</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="5">
         <v>6255</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3">
+      <c r="J22" s="5"/>
+      <c r="K22" s="5">
         <v>9496</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="5">
         <v>2</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="5">
         <v>21</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="5">
         <v>13379</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="5">
         <v>18722</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="5">
         <v>4122</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="5">
         <v>9347</v>
       </c>
     </row>
-    <row r="23" spans="10:17">
+    <row r="23" spans="1:17">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="7">
+        <v>459</v>
+      </c>
+      <c r="C23" s="7">
+        <v>82</v>
+      </c>
+      <c r="D23" s="7">
+        <v>156</v>
+      </c>
+      <c r="E23" s="7">
+        <v>2169</v>
+      </c>
+      <c r="F23" s="7">
+        <v>3390</v>
+      </c>
+      <c r="G23" s="7">
+        <v>3628</v>
+      </c>
+      <c r="H23" s="7">
+        <v>11503</v>
+      </c>
       <c r="J23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K23">
         <v>5241</v>
@@ -1462,6 +1521,175 @@
       </c>
       <c r="Q23">
         <v>9021</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17">
+      <c r="B24" s="7">
+        <v>391</v>
+      </c>
+      <c r="C24" s="7">
+        <v>140</v>
+      </c>
+      <c r="D24" s="7">
+        <v>49</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1695</v>
+      </c>
+      <c r="F24" s="7">
+        <v>3099</v>
+      </c>
+      <c r="G24" s="7">
+        <v>3731</v>
+      </c>
+      <c r="H24" s="7">
+        <v>36616</v>
+      </c>
+      <c r="J24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24">
+        <v>6411</v>
+      </c>
+      <c r="L24">
+        <v>26</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>27491</v>
+      </c>
+      <c r="O24">
+        <v>9333</v>
+      </c>
+      <c r="P24">
+        <v>4924</v>
+      </c>
+      <c r="Q24">
+        <v>8811</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="7">
+        <v>504</v>
+      </c>
+      <c r="C25" s="7">
+        <v>83</v>
+      </c>
+      <c r="D25" s="7">
+        <v>65</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1769</v>
+      </c>
+      <c r="F25" s="7">
+        <v>2843</v>
+      </c>
+      <c r="G25" s="7">
+        <v>3874</v>
+      </c>
+      <c r="H25" s="7">
+        <v>37096</v>
+      </c>
+      <c r="J25" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25">
+        <v>100</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>56</v>
+      </c>
+      <c r="N25">
+        <v>26720</v>
+      </c>
+      <c r="O25">
+        <v>10556</v>
+      </c>
+      <c r="P25">
+        <v>5138</v>
+      </c>
+      <c r="Q25">
+        <v>23007</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="7">
+        <v>578</v>
+      </c>
+      <c r="C26" s="7">
+        <v>116</v>
+      </c>
+      <c r="D26" s="7">
+        <v>69</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1575</v>
+      </c>
+      <c r="F26" s="7">
+        <v>2797</v>
+      </c>
+      <c r="G26" s="7">
+        <v>3783</v>
+      </c>
+      <c r="H26" s="7">
+        <v>37694</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="7">
+        <v>515</v>
+      </c>
+      <c r="C27" s="7">
+        <v>111</v>
+      </c>
+      <c r="D27" s="7">
+        <v>82</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1614</v>
+      </c>
+      <c r="F27" s="7">
+        <v>1688</v>
+      </c>
+      <c r="G27" s="7">
+        <v>3317</v>
+      </c>
+      <c r="H27" s="7">
+        <v>24997</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="7">
+        <v>546</v>
+      </c>
+      <c r="C28" s="7">
+        <v>123</v>
+      </c>
+      <c r="D28" s="7">
+        <v>75</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1570</v>
+      </c>
+      <c r="F28" s="7">
+        <v>2438</v>
+      </c>
+      <c r="G28" s="7">
+        <v>3734</v>
+      </c>
+      <c r="H28" s="7">
+        <v>36722</v>
       </c>
     </row>
   </sheetData>
